--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -474,14 +474,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ComboBox</t>
+          <t>Popover</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -490,14 +490,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Popover</t>
+          <t>ComboBox</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
@@ -506,14 +506,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
@@ -538,14 +538,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -554,39 +554,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dialog</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>Nav</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,7 +618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nav</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -634,7 +634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -666,7 +666,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -682,7 +682,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -698,7 +698,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -714,17 +714,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -746,7 +746,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -762,7 +762,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -810,7 +810,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -890,7 +890,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -906,7 +906,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -922,7 +922,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,7 +954,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,7 +986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Coachmark</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>Keytip</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1018,7 +1018,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1034,7 +1034,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1050,7 +1050,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Calendar</t>
+          <t>Coachmark</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1082,7 +1082,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Carousel</t>
         </is>
       </c>
       <c r="B41" t="n">

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,387 +462,387 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Popover</t>
+          <t>Combobox</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ComboBox</t>
+          <t>DataGrid</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Nav</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DataGrid</t>
+          <t>Popover</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nav</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dialog</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -874,14 +874,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -922,7 +922,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>TimePicker</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,7 +954,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,112 +986,224 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Calendar</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Spinner</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Coachmark</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ColorPicker</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Carousel</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Keytip</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Calendar</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pickers</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Coachmark</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ColorPicker</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,26 +478,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DataGrid</t>
+          <t>Nav</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -506,14 +506,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nav</t>
+          <t>DataGrid</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
@@ -570,7 +570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -586,7 +586,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dialog</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -602,14 +602,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -618,14 +618,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
@@ -634,14 +634,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -650,17 +650,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -714,39 +714,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -762,14 +762,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -826,7 +826,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -842,23 +842,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -874,14 +874,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -890,14 +890,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -922,7 +922,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TimePicker</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,7 +954,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -970,14 +970,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -986,7 +986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1002,14 +1002,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1018,14 +1018,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spinner</t>
+          <t>TimePicker</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1050,7 +1050,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1066,7 +1066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1082,7 +1082,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1098,39 +1098,39 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Calendar</t>
+          <t>Coachmark</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1146,7 +1146,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1162,7 +1162,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Coachmark</t>
+          <t>Keytip</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1178,7 +1178,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1194,16 +1194,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Carousel</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>ColorPicker</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -577,32 +577,32 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,7 +618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -634,7 +634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -650,30 +650,30 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -714,30 +714,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -746,7 +746,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -762,14 +762,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -842,7 +842,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -890,7 +890,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -922,7 +922,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,14 +954,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -970,14 +970,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -986,14 +986,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Spinner</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1002,14 +1002,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1018,14 +1018,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TimePicker</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1050,7 +1050,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Accordion</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1130,23 +1130,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Coachmark</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Calendar</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1162,7 +1162,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1178,7 +1178,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>Carousel</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1226,16 +1226,80 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>Coachmark</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Calendar</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Keytip</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>ColorPicker</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -506,62 +506,62 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DataGrid</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Popover</t>
+          <t>DataGrid</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Popover</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -570,17 +570,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dialog</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -634,14 +634,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -666,14 +666,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -682,14 +682,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -714,30 +714,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -746,14 +746,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -762,7 +762,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -794,7 +794,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -810,7 +810,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -842,7 +842,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Carousel</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -874,14 +874,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>Spinner</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -906,14 +906,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -922,14 +922,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,14 +954,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Accordion</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,14 +986,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spinner</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1018,7 +1018,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1034,7 +1034,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1050,7 +1050,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1114,7 +1114,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1130,7 +1130,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1146,17 +1146,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1178,7 +1178,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1242,7 +1242,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>Keytip</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1258,7 +1258,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Calendar</t>
+          <t>ColorPicker</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1274,7 +1274,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1290,7 +1290,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ColorPicker</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B54" t="n">

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -506,30 +506,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>DataGrid</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DataGrid</t>
+          <t>Popover</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -538,30 +538,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Popover</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dialog</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -570,14 +570,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -586,39 +586,39 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -634,14 +634,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -666,14 +666,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -714,14 +714,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -730,14 +730,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -746,7 +746,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -762,7 +762,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -778,7 +778,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -842,7 +842,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -858,30 +858,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spinner</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -890,14 +890,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -906,14 +906,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -922,14 +922,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,7 +954,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Accordion</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,7 +986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1018,14 +1018,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1050,14 +1050,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1114,14 +1114,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>Spinner</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1130,7 +1130,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1146,23 +1146,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1178,7 +1178,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>ColorPicker</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Calendar</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1226,7 +1226,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Coachmark</t>
+          <t>Carousel</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1242,7 +1242,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1258,7 +1258,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ColorPicker</t>
+          <t>Keytip</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1274,7 +1274,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>Coachmark</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1290,7 +1290,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="B54" t="n">

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -490,14 +490,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nav</t>
+          <t>DataGrid</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -506,14 +506,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DataGrid</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -538,14 +538,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Nav</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -554,14 +554,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -570,14 +570,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dialog</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -634,7 +634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -666,30 +666,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -714,30 +714,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -746,14 +746,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -842,14 +842,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -874,14 +874,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Spinner</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -890,14 +890,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -922,14 +922,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,7 +954,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -970,14 +970,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -986,7 +986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1018,14 +1018,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1050,14 +1050,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1114,14 +1114,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Spinner</t>
+          <t>Carousel</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1130,7 +1130,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1146,23 +1146,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>ColorPicker</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1178,7 +1178,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ColorPicker</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1226,7 +1226,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1242,7 +1242,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1258,7 +1258,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>Coachmark</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1274,7 +1274,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Coachmark</t>
+          <t>Keytip</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1290,7 +1290,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Calendar</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B54" t="n">

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -522,14 +522,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Popover</t>
+          <t>Nav</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nav</t>
+          <t>Popover</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -577,16 +577,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,14 +618,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
@@ -634,7 +634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -650,7 +650,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -666,17 +666,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
         <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -714,7 +714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -730,14 +730,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -746,7 +746,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -762,14 +762,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Accordion</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -842,14 +842,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -858,7 +858,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -874,30 +874,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spinner</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -922,7 +922,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -938,14 +938,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>Spinner</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -954,14 +954,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -970,14 +970,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -986,7 +986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1018,7 +1018,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>SearchBox</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1034,14 +1034,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1050,7 +1050,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Carousel</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1114,7 +1114,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1130,7 +1130,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1146,7 +1146,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1162,7 +1162,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ColorPicker</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Keytip</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1226,7 +1226,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1242,7 +1242,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Calendar</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1258,7 +1258,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Coachmark</t>
+          <t>ColorPicker</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1274,7 +1274,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>FloatingLabelInput</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1284,22 +1284,6 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Segment</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,26 +462,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Combobox</t>
+          <t>DataGrid</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
         <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>11</v>
@@ -490,30 +490,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DataGrid</t>
+          <t>Combobox</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Nav</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -522,14 +522,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nav</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -618,14 +618,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
@@ -634,7 +634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -666,7 +666,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -682,14 +682,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -698,7 +698,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -714,7 +714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -730,14 +730,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -746,7 +746,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -762,7 +762,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -810,7 +810,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -826,7 +826,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -842,14 +842,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Accordion</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -874,14 +874,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -890,14 +890,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>Carousel</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -922,14 +922,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -938,14 +938,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spinner</t>
+          <t>SearchBox</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -954,14 +954,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,14 +986,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>Spinner</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1002,14 +1002,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SearchBox</t>
+          <t>Persona</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1034,14 +1034,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1050,14 +1050,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1082,7 +1082,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1114,14 +1114,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1130,14 +1130,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1146,7 +1146,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1162,23 +1162,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1226,7 +1226,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1242,7 +1242,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>Keytip</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1258,7 +1258,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ColorPicker</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1274,16 +1274,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>ColorPicker</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>FloatingLabelInput</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,14 +490,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Combobox</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -522,17 +522,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Combobox</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -558,29 +558,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,23 +618,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -666,14 +666,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -698,7 +698,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -730,14 +730,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -746,7 +746,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -762,14 +762,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -826,7 +826,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Accordion</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -874,7 +874,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -890,7 +890,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -906,7 +906,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -922,14 +922,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SearchBox</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,14 +954,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,7 +986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spinner</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1018,7 +1018,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Persona</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1034,7 +1034,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>SearchBox</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1050,14 +1050,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Carousel</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1082,7 +1082,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>Persona</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1114,14 +1114,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1130,14 +1130,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1146,7 +1146,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1162,7 +1162,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1178,7 +1178,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>ColorPicker</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1226,7 +1226,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Keytip</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1242,7 +1242,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1258,7 +1258,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1268,38 +1268,6 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>ColorPicker</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>FloatingLabelInput</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,14 +522,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Combobox</t>
+          <t>Popover</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
@@ -538,14 +538,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Popover</t>
+          <t>Combobox</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>8</v>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -602,46 +602,46 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
         <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -666,7 +666,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -682,14 +682,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -714,14 +714,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -746,14 +746,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -762,14 +762,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -842,14 +842,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -874,23 +874,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -906,7 +906,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,7 +954,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,14 +986,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1018,14 +1018,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>SwatchPicker</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SearchBox</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1050,7 +1050,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1066,7 +1066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1082,7 +1082,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Persona</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1114,14 +1114,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1130,55 +1130,55 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1236,38 +1236,6 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Segment</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SpinButton</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -462,58 +462,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DataGrid</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Nav</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nav</t>
+          <t>DataGrid</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -538,62 +538,62 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Combobox</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dialog</t>
+          <t>Combobox</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>5</v>
@@ -602,14 +602,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -618,14 +618,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
@@ -634,14 +634,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -666,14 +666,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -682,7 +682,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -698,7 +698,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -714,14 +714,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -730,14 +730,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -746,14 +746,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -762,7 +762,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -778,7 +778,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Accordion</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -842,7 +842,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -874,7 +874,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -890,14 +890,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -906,14 +906,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -922,7 +922,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,14 +954,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,7 +986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1002,14 +1002,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SwatchPicker</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1034,14 +1034,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>SwatchPicker</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1050,7 +1050,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1066,7 +1066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1082,7 +1082,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1114,17 +1114,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1146,7 +1146,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1162,7 +1162,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>ColorPicker</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ColorPicker</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B49" t="n">

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,14 +490,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nav</t>
+          <t>DataGrid</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -506,14 +506,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DataGrid</t>
+          <t>Popover</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -522,17 +522,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Popover</t>
+          <t>Nav</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -570,7 +570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -602,30 +602,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
@@ -634,14 +634,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -666,14 +666,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -682,7 +682,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -714,7 +714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -730,7 +730,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -746,14 +746,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>DatePicker</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Accordion</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DatePicker</t>
+          <t>List</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -826,7 +826,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -842,14 +842,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -858,7 +858,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -874,39 +874,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -922,14 +922,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,14 +954,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>SwatchPicker</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AvatarGroup</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,7 +986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>AvatarGroup</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1018,14 +1018,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1034,14 +1034,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SwatchPicker</t>
+          <t>PopoverSurface</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1050,7 +1050,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1114,33 +1114,33 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>TabList</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>InfoLabel</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1162,7 +1162,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ColorPicker</t>
+          <t>InfoLabel</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1178,7 +1178,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>ColorPicker</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1226,16 +1226,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>Pickers</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>Keytip</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SpinButton</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>

--- a/spreadsheets/component_stats.xlsx
+++ b/spreadsheets/component_stats.xlsx
@@ -474,14 +474,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Nav</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -494,26 +494,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Popover</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -522,17 +522,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nav</t>
+          <t>Popover</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -570,30 +570,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TagPicker</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>TagPicker</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>5</v>
@@ -602,30 +602,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
         <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Toolbar</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
@@ -634,14 +634,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Virtualizer</t>
+          <t>Toolbar</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Virtualizer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -666,7 +666,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MessageBar</t>
+          <t>Calendar Compat</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -682,14 +682,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TeachingPopover</t>
+          <t>Skeleton</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Skeleton</t>
+          <t>MessageBar</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -714,7 +714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Calendar Compat</t>
+          <t>TeachingPopover</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -730,7 +730,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Accordion</t>
+          <t>Drawer</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -762,14 +762,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Drawer</t>
+          <t>DatePickerCompat</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Accordion</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -794,7 +794,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tabs</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FluentProvider</t>
+          <t>Toast</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -842,14 +842,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DatePickerCompat</t>
+          <t>Portal</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -858,7 +858,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Tabs</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -874,14 +874,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Portal</t>
+          <t>TabList</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -890,14 +890,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Toast</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -906,30 +906,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>FluentProvider</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Popup</t>
+          <t>Avatar</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -954,14 +954,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SwatchPicker</t>
+          <t>Checkbox</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FocusTrapZone</t>
+          <t>Badge</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>FocusTrapZone</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1018,7 +1018,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MenuItem</t>
+          <t>Popup</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1034,14 +1034,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PopoverSurface</t>
+          <t>SwatchPicker</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1050,14 +1050,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Checkbox</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>MenuItem</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Badge</t>
+          <t>Textarea</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1114,7 +1114,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TabList</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1130,23 +1130,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Keytip</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1178,7 +1178,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1194,7 +1194,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ColorPicker</t>
+          <t>SplitButton</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1210,7 +1210,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SplitButton</t>
+          <t>ColorPicker</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1226,7 +1226,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pickers</t>
+          <t>SpinButton</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1242,7 +1242,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Keytip</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1258,7 +1258,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SpinButton</t>
+          <t>Pickers</t>
         </is>
       </c>
       <c r="B52" t="n">
